--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.65.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.65.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.26344767654701073</t>
+          <t>0.2568964328244488</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.19589357312288969</t>
+          <t>0.19721788986065486</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.23167334764591346</t>
+          <t>0.23629766044115386</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.0681112075848918</t>
+          <t>0.07177222628350446</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.1077675987951597</t>
+          <t>0.11820188936893741</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.2430211271033487</t>
+          <t>0.23875997270901544</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.32898893065327084</t>
+          <t>0.3433444019982708</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.3160115657272333</t>
+          <t>0.30116121712134775</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.36627168861447057</t>
+          <t>0.3681029397661932</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.021892745147893886</t>
+          <t>0.021691456903127383</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.38341837412170465</t>
+          <t>0.3914078290836502</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.12246361649802873</t>
+          <t>0.11598142618176353</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.14360154153845966</t>
+          <t>0.13668322846833875</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.19379182687659827</t>
+          <t>0.19143318143500232</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.15642040074076355</t>
+          <t>0.1515709740240456</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4058370823553431</t>
+          <t>0.41317505971093615</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5178962514213924</t>
+          <t>0.5322252949106006</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.3871970936839103</t>
+          <t>0.40844962411843694</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5132708348810101</t>
+          <t>0.4936883186531093</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.538173800418799</t>
+          <t>0.518417318376557</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.42513966449795004</t>
+          <t>0.4099294520568705</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.5256458450315755</t>
+          <t>0.5220624663355156</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.43114563887734275</t>
+          <t>0.4401999120966103</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.524661155912355</t>
+          <t>0.5037465581473584</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.7193770050269895</t>
+          <t>0.6960631901412794</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.6807131319280738</t>
+          <t>0.6641604883904978</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.2043363060414549</t>
+          <t>0.1975195097509744</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.34209035411243965</t>
+          <t>0.334497745528535</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.3073469294387525</t>
+          <t>0.29668534278662756</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.3582001568449625</t>
+          <t>0.3724477968150555</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.27328062857373114</t>
+          <t>0.2622067730554311</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.33128982834404885</t>
+          <t>0.3429355365142311</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.4877129636793283</t>
+          <t>0.4792292216972927</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.3971380129383483</t>
+          <t>0.381483437482121</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.5968953316998623</t>
+          <t>0.590814489593853</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.4068441488154852</t>
+          <t>0.41719632777299437</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.4798657880806462</t>
+          <t>0.48023703845189675</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.6809265818631017</t>
+          <t>0.6733129103098622</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.5662146962776047</t>
+          <t>0.5438413241569633</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.41579704997670697</t>
+          <t>0.4271430476561785</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.6025742295650345</t>
+          <t>0.5915736133440695</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.4137953694691984</t>
+          <t>0.42034555140329266</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.6427462995483023</t>
+          <t>0.6359377621067247</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.5949755038653887</t>
+          <t>0.5631737175154437</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.7192127792020594</t>
+          <t>0.7312179961367312</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.6394795630613371</t>
+          <t>0.6173361464814899</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.3254189203476344</t>
+          <t>0.32395985713919667</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.4150964092572026</t>
+          <t>0.4088738716309727</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.5624614078694742</t>
+          <t>0.5800116349079634</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.5085063278156225</t>
+          <t>0.526398313287789</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.6362740909765681</t>
+          <t>0.64838466943298</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.5284323485507285</t>
+          <t>0.5242282797579282</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.7358452921185399</t>
+          <t>0.7213588015490036</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.37789559712729537</t>
+          <t>0.37358373794903743</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.48799854644913737</t>
+          <t>0.49522257980037987</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.4965149356338681</t>
+          <t>0.49977355430789583</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.4949349275097859</t>
+          <t>0.5138929994928176</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.6233414526022083</t>
+          <t>0.627156444349553</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.815616768694948</t>
+          <t>0.8077635357014997</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.1360545712258741</t>
+          <t>0.13295989773034367</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.18312386347083703</t>
+          <t>0.16848049981231952</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.3820268765722302</t>
+          <t>0.3665376046423301</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.20136274514533745</t>
+          <t>0.20674148489385655</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.23341368400776152</t>
+          <t>0.23191317547194393</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.5449713117893962</t>
+          <t>0.5389698886454845</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.18068839951414498</t>
+          <t>0.1802633176823629</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.3028192918649818</t>
+          <t>0.3045552132895055</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5286651868054064</t>
+          <t>0.5184656245778149</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.6046606927304314</t>
+          <t>0.6011128577587547</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.42526869463921774</t>
+          <t>0.43290001733045547</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.6906402384892951</t>
+          <t>0.6975478151771456</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.3693453577757093</t>
+          <t>0.3749791536733692</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.5120824012988828</t>
+          <t>0.5042515075444585</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.3996150988849332</t>
+          <t>0.37867641721741174</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.5435312183385774</t>
+          <t>0.5397352516877392</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.40823818234008774</t>
+          <t>0.41236054282030266</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.6757318760558424</t>
+          <t>0.6825494908501373</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.4815928947083316</t>
+          <t>0.4970972468403045</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.7360609193766877</t>
+          <t>0.7363640005064743</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.595701077146795</t>
+          <t>0.5893834061994602</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.5055456778633304</t>
+          <t>0.49239806975955136</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.602553542823927</t>
+          <t>0.5877291362596239</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.5837431044270927</t>
+          <t>0.5734497948220478</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.7799980747662364</t>
+          <t>0.7786331109379393</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.6127309874502818</t>
+          <t>0.6092059783584253</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.8553721550771004</t>
+          <t>0.8401996241630943</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7741,12 +7741,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.2100528218635988</t>
+          <t>0.20764674469828995</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.25024016820295586</t>
+          <t>0.24245574936926398</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.28266881977971436</t>
+          <t>0.27896645784404794</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.26001179002071595</t>
+          <t>0.26572963520771054</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.4506182913122148</t>
+          <t>0.4540057556472769</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.4265411766963548</t>
+          <t>0.40617345319844755</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.4932776469348017</t>
+          <t>0.4975577288313237</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.4489895288459379</t>
+          <t>0.4336472167055988</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8181,12 +8181,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.21932259111855648</t>
+          <t>0.2113096164734022</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.3292464008740279</t>
+          <t>0.3270572458207378</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.3465980801148247</t>
+          <t>0.3387802854395638</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.29176138842567845</t>
+          <t>0.29654553000914935</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.48416330904537963</t>
+          <t>0.4859678992622271</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.5383661353214085</t>
+          <t>0.5204464356283817</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.529999165951897</t>
+          <t>0.5255025079780455</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.6448282010165585</t>
+          <t>0.6256670519764833</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.11233296731234027</t>
+          <t>0.11798672626809592</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.1549546225815091</t>
+          <t>0.14909890293108216</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.09637450854634158</t>
+          <t>0.10116927705848694</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.17290688632868575</t>
+          <t>0.17518517805041173</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.23446156352603614</t>
+          <t>0.2382185468198939</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.2921657765652246</t>
+          <t>0.2957792147199613</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.21783502970874666</t>
+          <t>0.2145092549544005</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.40215310505731244</t>
+          <t>0.40365566469023606</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.3132507521847484</t>
+          <t>0.31801886687552355</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.42102834452611515</t>
+          <t>0.4246308469184458</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.5158254660109662</t>
+          <t>0.48129071633798165</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.3288720385646668</t>
+          <t>0.32565382017403455</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.3291156695278875</t>
+          <t>0.3408821885832348</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.3430358970587125</t>
+          <t>0.34269564030127875</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.3622109727350455</t>
+          <t>0.36290790137261897</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.45781271577960875</t>
+          <t>0.4684054920218346</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.47914426531589244</t>
+          <t>0.4901802871189638</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.30812824936991123</t>
+          <t>0.32174318640383653</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.4203950040566268</t>
+          <t>0.4035283488180471</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.38647038378137966</t>
+          <t>0.397730783882535</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.5133590495757022</t>
+          <t>0.5153727114993817</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.5858272908911873</t>
+          <t>0.5874091658852459</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.6095807211903567</t>
+          <t>0.5987984292883749</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.65.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.65.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.2568964328244488</t>
+          <t>0.24002068610999241</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.19721788986065486</t>
+          <t>0.18644872416191172</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.22383755180868933</t>
+          <t>0.206950576305415</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.23629766044115386</t>
+          <t>0.23269405683755023</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.07177222628350446</t>
+          <t>0.06648552174867964</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.11820188936893741</t>
+          <t>0.11535693915556613</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.2529547743587337</t>
+          <t>0.24737164780786525</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.23875997270901544</t>
+          <t>0.22211880973160716</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.3433444019982708</t>
+          <t>0.3385056923208515</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.11081814675337996</t>
+          <t>0.10797135586311082</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.30116121712134775</t>
+          <t>0.2809560099927525</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.3681029397661932</t>
+          <t>0.36113731633618396</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.1531822757012302</t>
+          <t>0.14335251682566982</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.019344207788143716</t>
+          <t>0.018101971763298995</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.1835264070959988</t>
+          <t>0.18000279509508668</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.3914078290836502</t>
+          <t>0.3782647822864381</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.11598142618176353</t>
+          <t>0.11120734263530148</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.30502550980232723</t>
+          <t>0.2864900277553949</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.12877317106484615</t>
+          <t>0.12045664297750854</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.020056739237773725</t>
+          <t>0.016464785214785217</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.17252945401857583</t>
+          <t>0.16884812625004028</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.044373241194626004</t>
+          <t>0.040980165214233845</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.13668322846833875</t>
+          <t>0.13481765919536207</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.029528020020033935</t>
+          <t>0.028169324367860023</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.05555304825005913</t>
+          <t>0.0518921182983683</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.19143318143500232</t>
+          <t>0.18713776175496727</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.09220820802187493</t>
+          <t>0.0905299672811342</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.1515709740240456</t>
+          <t>0.14941291044865918</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.41317505971093615</t>
+          <t>0.39852463069027644</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5322252949106006</t>
+          <t>0.5182061222515656</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.4936883186531093</t>
+          <t>0.47182414485540647</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.47563982762617685</t>
+          <t>0.46618751817386733</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.646713260752106</t>
+          <t>0.6225560390142392</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.518417318376557</t>
+          <t>0.5016556860930692</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.4766622882862154</t>
+          <t>0.47083791552635873</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.4099294520568705</t>
+          <t>0.40577636279739826</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.5220624663355156</t>
+          <t>0.5170667483794779</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.4401999120966103</t>
+          <t>0.435947659844358</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.6653758527164108</t>
+          <t>0.6593791612358483</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.5037465581473584</t>
+          <t>0.4987100255517707</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.6960631901412794</t>
+          <t>0.6635119581636131</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.6641604883904978</t>
+          <t>0.6583639942219106</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.14626971803650402</t>
+          <t>0.13523180467967977</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.12987143573359752</t>
+          <t>0.11879771877752762</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.2956282649177735</t>
+          <t>0.28421847795712135</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.1975195097509744</t>
+          <t>0.19293865771249524</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.334497745528535</t>
+          <t>0.30327901048355393</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.29668534278662756</t>
+          <t>0.2916232908704927</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.45999701849183466</t>
+          <t>0.4493691150050407</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.3724477968150555</t>
+          <t>0.33392355829081705</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.22682194513009785</t>
+          <t>0.20113161225504764</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.2622067730554311</t>
+          <t>0.23219898749209003</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.32364420468692123</t>
+          <t>0.3150163118424385</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.3429355365142311</t>
+          <t>0.31936508263934543</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.4951384514682246</t>
+          <t>0.47649516583883217</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.3739480608229333</t>
+          <t>0.3550373144432177</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.5372610337264252</t>
+          <t>0.5164865160145209</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.4792292216972927</t>
+          <t>0.46867813006512</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.4658890440362617</t>
+          <t>0.4503917582061001</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.590814489593853</t>
+          <t>0.5811244694325626</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.41719632777299437</t>
+          <t>0.4025459008584165</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.6299070160612456</t>
+          <t>0.6243751578900912</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.48023703845189675</t>
+          <t>0.4645167982551958</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.5438413241569633</t>
+          <t>0.5376637179793571</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.5363485614990086</t>
+          <t>0.5307895261090931</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.5915736133440695</t>
+          <t>0.5812711179491628</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.42034555140329266</t>
+          <t>0.41517206108128746</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.5631737175154437</t>
+          <t>0.5522127565544828</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.6173361464814899</t>
+          <t>0.5979596271049705</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.32395985713919667</t>
+          <t>0.3178945878025388</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.5645354312009438</t>
+          <t>0.5371569762276389</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.4088738716309727</t>
+          <t>0.4033870186571324</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.5800116349079634</t>
+          <t>0.5668818639155968</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.526398313287789</t>
+          <t>0.5191514738184575</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.64838466943298</t>
+          <t>0.6335114349936547</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.5242282797579282</t>
+          <t>0.5203263845516851</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.7213588015490036</t>
+          <t>0.7106402630148744</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.37358373794903743</t>
+          <t>0.37104750606497944</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.49522257980037987</t>
+          <t>0.4910588046442383</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.49977355430789583</t>
+          <t>0.4896248470667708</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.6680206594835263</t>
+          <t>0.65748949713475</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.5138929994928176</t>
+          <t>0.5065815308242148</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.7477254210132354</t>
+          <t>0.7353662788831009</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.627156444349553</t>
+          <t>0.6191946316051316</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.8077635357014997</t>
+          <t>0.7955717624025818</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.13295989773034367</t>
+          <t>0.12244077080584939</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.2617426121492783</t>
+          <t>0.23036600857061723</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.16848049981231952</t>
+          <t>0.13897569660019826</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.3665376046423301</t>
+          <t>0.3416988634832945</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.20674148489385655</t>
+          <t>0.1994108735209036</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.4233254225154484</t>
+          <t>0.41074877378562735</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.23191317547194393</t>
+          <t>0.22502469818201834</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.5389698886454845</t>
+          <t>0.5304433139661355</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.1802633176823629</t>
+          <t>0.15187875088585798</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.3419324877064435</t>
+          <t>0.3162075818655503</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.3045552132895055</t>
+          <t>0.2912570931164728</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5184656245778149</t>
+          <t>0.5000864108176319</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.3332055797631282</t>
+          <t>0.31945124551580817</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.6011128577587547</t>
+          <t>0.5904653991849323</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.43290001733045547</t>
+          <t>0.4229144755970066</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.6975478151771456</t>
+          <t>0.6827192938135136</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.3749791536733692</t>
+          <t>0.3518285105489765</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.5042515075444585</t>
+          <t>0.48071918213880754</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.37867641721741174</t>
+          <t>0.3730359941856844</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.5397352516877392</t>
+          <t>0.5268496639929912</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.41236054282030266</t>
+          <t>0.40639889098077003</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.6825494908501373</t>
+          <t>0.6726522633956579</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.4970972468403045</t>
+          <t>0.4827653356254874</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.7363640005064743</t>
+          <t>0.713588619749016</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.40148254912833076</t>
+          <t>0.3924464045500175</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.5893834061994602</t>
+          <t>0.5841731796151878</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.49239806975955136</t>
+          <t>0.4889214843528327</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.5877291362596239</t>
+          <t>0.5706695878735595</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.5734497948220478</t>
+          <t>0.5547233582470882</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.7786331109379393</t>
+          <t>0.7615586796674731</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.6092059783584253</t>
+          <t>0.6013623546580936</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.20764674469828995</t>
+          <t>0.20394655895023184</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.24245574936926398</t>
+          <t>0.2324493360295173</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.27896645784404794</t>
+          <t>0.27177593351546986</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.26572963520771054</t>
+          <t>0.24960522192753307</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.4540057556472769</t>
+          <t>0.44481120000682167</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.40617345319844755</t>
+          <t>0.3974302837995405</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.4975577288313237</t>
+          <t>0.4923603835429974</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.2113096164734022</t>
+          <t>0.2071559633563657</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.3270572458207378</t>
+          <t>0.3237877694478132</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.3387802854395638</t>
+          <t>0.33362315673834353</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.29654553000914935</t>
+          <t>0.2823298437346396</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.5204464356283817</t>
+          <t>0.5008251368610669</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.5255025079780455</t>
+          <t>0.5162793737597222</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.6256670519764833</t>
+          <t>0.6103931631345394</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.11798672626809592</t>
+          <t>0.10988135862485901</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.14909890293108216</t>
+          <t>0.13611449442241702</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.10116927705848694</t>
+          <t>0.09149016702267711</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.1532273208704108</t>
+          <t>0.13561765446641816</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.17518517805041173</t>
+          <t>0.15684173882363883</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.24252448884316882</t>
+          <t>0.22469605434806766</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.2382185468198939</t>
+          <t>0.21319143528083387</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.2957792147199613</t>
+          <t>0.2854624358002976</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.15057932805294091</t>
+          <t>0.13509131756212037</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.2145092549544005</t>
+          <t>0.20543896016982</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.1879083353067924</t>
+          <t>0.17545082753678462</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.2505373529189181</t>
+          <t>0.24437750886433718</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.40365566469023606</t>
+          <t>0.3845364264412201</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.31801886687552355</t>
+          <t>0.3098805168853217</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.4246308469184458</t>
+          <t>0.4131458033146352</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.48129071633798165</t>
+          <t>0.4726899350292896</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.2707698889416658</t>
+          <t>0.2643396272048003</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.32565382017403455</t>
+          <t>0.30302326349990494</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,12 +9611,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.3408821885832348</t>
+          <t>0.33660803536007267</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.34269564030127875</t>
+          <t>0.32671261934650636</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.36290790137261897</t>
+          <t>0.35626844942066704</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.4465623137385021</t>
+          <t>0.44179580810243124</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.4684054920218346</t>
+          <t>0.4542518911315273</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.4901802871189638</t>
+          <t>0.4776764946151713</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.31525256263475027</t>
+          <t>0.30784515522734285</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.4035283488180471</t>
+          <t>0.39371362110028196</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.397730783882535</t>
+          <t>0.3807707092420363</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.5025062217810896</t>
+          <t>0.49454777121362903</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.5874091658852459</t>
+          <t>0.5817158460471893</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.65.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.65.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.24002068610999241</t>
+          <t>0.2568964328244488</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.18644872416191172</t>
+          <t>0.19721788986065486</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.206950576305415</t>
+          <t>0.22383755180868933</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.23269405683755023</t>
+          <t>0.23629766044115386</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.06648552174867964</t>
+          <t>0.07177222628350446</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.11535693915556613</t>
+          <t>0.11820188936893741</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.24737164780786525</t>
+          <t>0.2529547743587337</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.22211880973160716</t>
+          <t>0.23875997270901544</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.3385056923208515</t>
+          <t>0.3433444019982708</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.10797135586311082</t>
+          <t>0.11081814675337996</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.2809560099927525</t>
+          <t>0.30116121712134775</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.36113731633618396</t>
+          <t>0.3681029397661932</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.14335251682566982</t>
+          <t>0.1531822757012302</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.018101971763298995</t>
+          <t>0.019344207788143716</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.18000279509508668</t>
+          <t>0.1835264070959988</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.3782647822864381</t>
+          <t>0.3914078290836502</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.11120734263530148</t>
+          <t>0.11598142618176353</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.2864900277553949</t>
+          <t>0.30502550980232723</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.12045664297750854</t>
+          <t>0.12877317106484615</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>143</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.016464785214785217</t>
+          <t>0.020056739237773725</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.16884812625004028</t>
+          <t>0.17252945401857583</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.040980165214233845</t>
+          <t>0.044373241194626004</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.13481765919536207</t>
+          <t>0.13668322846833875</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.028169324367860023</t>
+          <t>0.029528020020033935</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.0518921182983683</t>
+          <t>0.05555304825005913</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.18713776175496727</t>
+          <t>0.19143318143500232</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.0905299672811342</t>
+          <t>0.09220820802187493</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.14941291044865918</t>
+          <t>0.1515709740240456</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.39852463069027644</t>
+          <t>0.41317505971093615</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.5182061222515656</t>
+          <t>0.5322252949106006</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.47182414485540647</t>
+          <t>0.4936883186531093</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.46618751817386733</t>
+          <t>0.47563982762617685</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.6225560390142392</t>
+          <t>0.646713260752106</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.5016556860930692</t>
+          <t>0.518417318376557</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.47083791552635873</t>
+          <t>0.4766622882862154</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.40577636279739826</t>
+          <t>0.4099294520568705</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.5170667483794779</t>
+          <t>0.5220624663355156</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.435947659844358</t>
+          <t>0.4401999120966103</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.6593791612358483</t>
+          <t>0.6653758527164108</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.4987100255517707</t>
+          <t>0.5037465581473584</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.6635119581636131</t>
+          <t>0.6960631901412794</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.6583639942219106</t>
+          <t>0.6641604883904978</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.13523180467967977</t>
+          <t>0.14626971803650402</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.11879771877752762</t>
+          <t>0.12987143573359752</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.28421847795712135</t>
+          <t>0.2956282649177735</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.19293865771249524</t>
+          <t>0.1975195097509744</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.30327901048355393</t>
+          <t>0.334497745528535</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.2916232908704927</t>
+          <t>0.29668534278662756</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.4493691150050407</t>
+          <t>0.45999701849183466</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.33392355829081705</t>
+          <t>0.3724477968150555</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.20113161225504764</t>
+          <t>0.22682194513009785</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.23219898749209003</t>
+          <t>0.2622067730554311</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3150163118424385</t>
+          <t>0.32364420468692123</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>49</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>39</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.31936508263934543</t>
+          <t>0.3429355365142311</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.47649516583883217</t>
+          <t>0.4951384514682246</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.3550373144432177</t>
+          <t>0.3739480608229333</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.5164865160145209</t>
+          <t>0.5372610337264252</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.46867813006512</t>
+          <t>0.4792292216972927</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.4503917582061001</t>
+          <t>0.4658890440362617</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.5811244694325626</t>
+          <t>0.590814489593853</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.4025459008584165</t>
+          <t>0.41719632777299437</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.6243751578900912</t>
+          <t>0.6299070160612456</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.4645167982551958</t>
+          <t>0.48023703845189675</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.5376637179793571</t>
+          <t>0.5438413241569633</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.5307895261090931</t>
+          <t>0.5363485614990086</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.5812711179491628</t>
+          <t>0.5915736133440695</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.41517206108128746</t>
+          <t>0.42034555140329266</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.5522127565544828</t>
+          <t>0.5631737175154437</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.5979596271049705</t>
+          <t>0.6173361464814899</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.3178945878025388</t>
+          <t>0.32395985713919667</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.5371569762276389</t>
+          <t>0.5645354312009438</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.4033870186571324</t>
+          <t>0.4088738716309727</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.5668818639155968</t>
+          <t>0.5800116349079634</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.5191514738184575</t>
+          <t>0.526398313287789</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.6335114349936547</t>
+          <t>0.64838466943298</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.5203263845516851</t>
+          <t>0.5242282797579282</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.7106402630148744</t>
+          <t>0.7213588015490036</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.37104750606497944</t>
+          <t>0.37358373794903743</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.4910588046442383</t>
+          <t>0.49522257980037987</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.4896248470667708</t>
+          <t>0.49977355430789583</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.65748949713475</t>
+          <t>0.6680206594835263</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.5065815308242148</t>
+          <t>0.5138929994928176</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.7353662788831009</t>
+          <t>0.7477254210132354</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.6191946316051316</t>
+          <t>0.627156444349553</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.7955717624025818</t>
+          <t>0.8077635357014997</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.12244077080584939</t>
+          <t>0.13295989773034367</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.23036600857061723</t>
+          <t>0.2617426121492783</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.13897569660019826</t>
+          <t>0.16848049981231952</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.3416988634832945</t>
+          <t>0.3665376046423301</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.1994108735209036</t>
+          <t>0.20674148489385655</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.41074877378562735</t>
+          <t>0.4233254225154484</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.22502469818201834</t>
+          <t>0.23191317547194393</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.5304433139661355</t>
+          <t>0.5389698886454845</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.15187875088585798</t>
+          <t>0.1802633176823629</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.3162075818655503</t>
+          <t>0.3419324877064435</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.2912570931164728</t>
+          <t>0.3045552132895055</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.5000864108176319</t>
+          <t>0.5184656245778149</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.31945124551580817</t>
+          <t>0.3332055797631282</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.5904653991849323</t>
+          <t>0.6011128577587547</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.4229144755970066</t>
+          <t>0.43290001733045547</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.6827192938135136</t>
+          <t>0.6975478151771456</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.3518285105489765</t>
+          <t>0.3749791536733692</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6916,12 +6916,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.48071918213880754</t>
+          <t>0.5042515075444585</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.3730359941856844</t>
+          <t>0.37867641721741174</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.5268496639929912</t>
+          <t>0.5397352516877392</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.40639889098077003</t>
+          <t>0.41236054282030266</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.6726522633956579</t>
+          <t>0.6825494908501373</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.4827653356254874</t>
+          <t>0.4970972468403045</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.713588619749016</t>
+          <t>0.7363640005064743</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.3924464045500175</t>
+          <t>0.40148254912833076</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.5841731796151878</t>
+          <t>0.5893834061994602</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.4889214843528327</t>
+          <t>0.49239806975955136</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7466,12 +7466,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.5706695878735595</t>
+          <t>0.5877291362596239</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.5547233582470882</t>
+          <t>0.5734497948220478</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.7615586796674731</t>
+          <t>0.7786331109379393</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.6013623546580936</t>
+          <t>0.6092059783584253</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.20394655895023184</t>
+          <t>0.20764674469828995</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.2324493360295173</t>
+          <t>0.24245574936926398</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.27177593351546986</t>
+          <t>0.27896645784404794</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.24960522192753307</t>
+          <t>0.26572963520771054</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.44481120000682167</t>
+          <t>0.4540057556472769</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.3974302837995405</t>
+          <t>0.40617345319844755</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.4923603835429974</t>
+          <t>0.4975577288313237</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.2071559633563657</t>
+          <t>0.2113096164734022</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.3237877694478132</t>
+          <t>0.3270572458207378</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.33362315673834353</t>
+          <t>0.3387802854395638</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.2823298437346396</t>
+          <t>0.29654553000914935</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.5008251368610669</t>
+          <t>0.5204464356283817</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.5162793737597222</t>
+          <t>0.5255025079780455</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.6103931631345394</t>
+          <t>0.6256670519764833</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.10988135862485901</t>
+          <t>0.11798672626809592</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.13611449442241702</t>
+          <t>0.14909890293108216</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.09149016702267711</t>
+          <t>0.10116927705848694</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.13561765446641816</t>
+          <t>0.1532273208704108</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.15684173882363883</t>
+          <t>0.17518517805041173</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.22469605434806766</t>
+          <t>0.24252448884316882</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.21319143528083387</t>
+          <t>0.2382185468198939</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.2854624358002976</t>
+          <t>0.2957792147199613</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.13509131756212037</t>
+          <t>0.15057932805294091</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.20543896016982</t>
+          <t>0.2145092549544005</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.17545082753678462</t>
+          <t>0.1879083353067924</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.24437750886433718</t>
+          <t>0.2505373529189181</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.3845364264412201</t>
+          <t>0.40365566469023606</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.3098805168853217</t>
+          <t>0.31801886687552355</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.4131458033146352</t>
+          <t>0.4246308469184458</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.4726899350292896</t>
+          <t>0.48129071633798165</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.2643396272048003</t>
+          <t>0.2707698889416658</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.30302326349990494</t>
+          <t>0.32565382017403455</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,12 +9611,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.33660803536007267</t>
+          <t>0.3408821885832348</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.32671261934650636</t>
+          <t>0.34269564030127875</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.35626844942066704</t>
+          <t>0.36290790137261897</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.44179580810243124</t>
+          <t>0.4465623137385021</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.4542518911315273</t>
+          <t>0.4684054920218346</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.4776764946151713</t>
+          <t>0.4901802871189638</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.30784515522734285</t>
+          <t>0.31525256263475027</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.39371362110028196</t>
+          <t>0.4035283488180471</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.3807707092420363</t>
+          <t>0.397730783882535</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.49454777121362903</t>
+          <t>0.5025062217810896</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.5817158460471893</t>
+          <t>0.5874091658852459</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
     </row>
